--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WYOMING_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WYOMING_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C13">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C31">
@@ -1093,7 +1093,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C68">
@@ -1376,7 +1376,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C75">
@@ -1441,7 +1441,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C80">
@@ -1493,12 +1493,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C84">
@@ -1550,7 +1550,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C88">
@@ -1641,7 +1641,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C95">
@@ -1750,7 +1750,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C103">
@@ -1828,7 +1828,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C109">
@@ -1854,7 +1854,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C111">
@@ -1867,7 +1867,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C112">
@@ -1880,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C113">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C116">
@@ -1976,7 +1976,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C120">
@@ -2028,7 +2028,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C124">
@@ -2072,7 +2072,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C127">
@@ -2168,7 +2168,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C134">
@@ -2246,7 +2246,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C140">
@@ -2259,7 +2259,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C141">
@@ -2324,7 +2324,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C146">
@@ -2337,7 +2337,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C147">
@@ -2363,7 +2363,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C149">
@@ -2389,7 +2389,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C151">
@@ -2402,7 +2402,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C152">
@@ -2415,7 +2415,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C153">
@@ -2454,7 +2454,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C156">
@@ -2480,7 +2480,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C158">
@@ -2493,7 +2493,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C159">
@@ -2872,7 +2872,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C187">
@@ -2973,7 +2973,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C194">
@@ -2999,7 +2999,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -3012,7 +3012,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C197">
@@ -3155,7 +3155,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C208">
@@ -3199,7 +3199,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C211">
@@ -3329,7 +3329,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C228">
@@ -3495,7 +3495,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C233">
@@ -3521,7 +3521,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C235">
@@ -3534,7 +3534,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C236">
@@ -3962,7 +3962,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C267">
@@ -3975,7 +3975,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C268">
@@ -4027,7 +4027,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C272">
@@ -4214,7 +4214,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C286">
@@ -4440,7 +4440,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C303">
@@ -4479,7 +4479,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C306">
@@ -4505,7 +4505,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C308">
@@ -4552,41 +4552,6 @@
       </c>
       <c r="D311">
         <v>1</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WYOMING_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WYOMING_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Nonoava</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Otáez</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1600,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>León</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2166,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -2179,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2192,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -2205,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -2218,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Ejutla</t>
@@ -2231,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2244,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2270,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2283,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -2574,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -2587,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -2600,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Copándaro</t>
@@ -2613,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -2626,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2639,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2652,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2665,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2678,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -2691,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -2704,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2717,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2756,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2769,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2782,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2795,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2826,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2839,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2870,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -2883,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -2896,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2909,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2940,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2971,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -2984,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -2997,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3010,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -3023,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Andrés Solaga</t>
@@ -3036,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>San Francisco Teopan</t>
@@ -3049,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3062,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>San Mateo Cajonos</t>
@@ -3075,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>San Pedro Mártir</t>
@@ -3088,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -3101,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3114,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -3127,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -3140,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -3153,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3166,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3197,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -3210,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3223,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -3236,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -3249,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -3262,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3275,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -3288,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Teotlalco</t>
@@ -3301,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3314,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -3327,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3340,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -3353,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3366,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -3379,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -3392,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -3405,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3436,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -3449,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3462,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3493,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -3506,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3519,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3532,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3545,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3576,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -3589,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -3602,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -3615,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3628,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -3641,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3672,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Bácum</t>
@@ -3685,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -3698,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3711,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3724,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3737,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3750,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3763,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -3776,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3807,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -3820,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3851,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3882,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -3895,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3908,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -3921,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Españita</t>
@@ -3934,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -3947,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3960,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -3973,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3986,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3999,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>San José Teacalco</t>
@@ -4012,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -4025,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -4038,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -4051,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4064,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4077,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -4090,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -4103,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4116,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -4129,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4142,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4173,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -4186,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -4199,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -4212,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -4225,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -4238,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -4251,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -4264,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4277,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4290,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -4303,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4334,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -4347,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -4360,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -4373,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4386,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -4399,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -4412,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -4425,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -4438,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -4451,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -4464,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -4477,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4490,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -4503,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4516,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4529,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Total</t>
